--- a/results/initial_descriptives/combined/pointpanel_variables.xlsx
+++ b/results/initial_descriptives/combined/pointpanel_variables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>position</t>
   </si>
@@ -270,9 +270,6 @@
     <t>NRI point unique id</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>obs has NASS (pasture rents) data</t>
   </si>
   <si>
@@ -321,7 +318,7 @@
     <t>obs has NRI(6classes), CRP, and 4 NR data components</t>
   </si>
   <si>
-    <t>RENT, CASH, PASTURELAND - EXPENSE, MEASURED IN $ / ACRE</t>
+    <t>2010USD pastureland rent/acre (NASS)</t>
   </si>
   <si>
     <t>Pasture rents (NASS) data level</t>
@@ -330,10 +327,10 @@
     <t>Thousand acres in CRP (USDA County Stats)</t>
   </si>
   <si>
-    <t>CRP Contract-based FY rental payments (not actuals) (USDA County Stats)</t>
-  </si>
-  <si>
-    <t>avg per-CRPacre contract-based FY rent payments (not actuals) (USDA County Stats</t>
+    <t>2010USD CRP Contract-based FY rent payments (not actuals) (USDA)</t>
+  </si>
+  <si>
+    <t>2010USD avg per-CRPacre contract-based FY rent payments (not actuals) (USDA)</t>
   </si>
   <si>
     <t>2010USD annualized net return/acre net income deriving from crop production[L&amp;M]</t>
@@ -561,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -595,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -612,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -646,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -663,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -680,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -697,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -714,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -731,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -748,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -765,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -782,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -799,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -816,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -833,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -850,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -867,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -884,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -901,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -918,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -935,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -952,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -969,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -986,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -1003,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1054,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -1105,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -1122,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -1139,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -1173,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -1190,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -1207,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -1224,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -1241,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -1258,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
@@ -1275,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
@@ -1292,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
@@ -1309,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -1326,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -1343,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -1360,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
@@ -1377,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59">
@@ -1394,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
@@ -1411,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/pointpanel_variables.xlsx
+++ b/results/initial_descriptives/combined/pointpanel_variables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
   <si>
     <t>position</t>
   </si>
@@ -102,6 +102,21 @@
     <t>pasture_nr</t>
   </si>
   <si>
+    <t>CRP_nr</t>
+  </si>
+  <si>
+    <t>crop_nr</t>
+  </si>
+  <si>
+    <t>forest_nr</t>
+  </si>
+  <si>
+    <t>urban_nr</t>
+  </si>
+  <si>
+    <t>range_nr</t>
+  </si>
+  <si>
     <t>pasture_nr_level</t>
   </si>
   <si>
@@ -111,27 +126,6 @@
     <t>CRPrent</t>
   </si>
   <si>
-    <t>CRP_nr</t>
-  </si>
-  <si>
-    <t>crop_nr</t>
-  </si>
-  <si>
-    <t>forest_nr</t>
-  </si>
-  <si>
-    <t>urban_nr</t>
-  </si>
-  <si>
-    <t>NRI_nr_mergenote</t>
-  </si>
-  <si>
-    <t>CRP_mergenote</t>
-  </si>
-  <si>
-    <t>NASS_mergenote</t>
-  </si>
-  <si>
     <t>CRPland_acresk</t>
   </si>
   <si>
@@ -207,7 +201,7 @@
     <t>byte</t>
   </si>
   <si>
-    <t>str20</t>
+    <t>str14</t>
   </si>
   <si>
     <t>str2</t>
@@ -225,21 +219,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>str17</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>str30</t>
-  </si>
-  <si>
-    <t>str21</t>
-  </si>
-  <si>
-    <t>str48</t>
-  </si>
-  <si>
     <t>isnumeric</t>
   </si>
   <si>
@@ -321,6 +306,21 @@
     <t>2010USD pastureland rent/acre (NASS)</t>
   </si>
   <si>
+    <t>2010USD avg per-CRPacre contract-based FY rent payments (not actuals) (USDA)</t>
+  </si>
+  <si>
+    <t>2010USD annualized net return/acre net income deriving from crop production[L&amp;M]</t>
+  </si>
+  <si>
+    <t>2010USD annualized net return/acre of bare forestland [L&amp;M]</t>
+  </si>
+  <si>
+    <t>2010USD annualized net return/acre derived from price of recently dev. land[L&amp;M]</t>
+  </si>
+  <si>
+    <t>= pasture_nr</t>
+  </si>
+  <si>
     <t>Pasture rents (NASS) data level</t>
   </si>
   <si>
@@ -328,18 +328,6 @@
   </si>
   <si>
     <t>2010USD CRP Contract-based FY rent payments (not actuals) (USDA)</t>
-  </si>
-  <si>
-    <t>2010USD avg per-CRPacre contract-based FY rent payments (not actuals) (USDA)</t>
-  </si>
-  <si>
-    <t>2010USD annualized net return/acre net income deriving from crop production[L&amp;M]</t>
-  </si>
-  <si>
-    <t>2010USD annualized net return/acre of bare forestland [L&amp;M]</t>
-  </si>
-  <si>
-    <t>2010USD annualized net return/acre derived from price of recently dev. land[L&amp;M]</t>
   </si>
   <si>
     <t/>
@@ -388,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -399,13 +387,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -416,13 +404,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -433,13 +421,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -450,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -467,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +489,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -518,13 +506,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -535,13 +523,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -569,13 +557,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -586,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -620,13 +608,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +625,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -654,13 +642,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -671,13 +659,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -688,13 +676,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +693,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -722,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -739,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -756,13 +744,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -773,13 +761,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -790,13 +778,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -807,13 +795,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -824,13 +812,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -841,13 +829,13 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -858,13 +846,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -875,13 +863,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -892,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -909,13 +897,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -926,13 +914,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -949,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -960,13 +948,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -983,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -994,13 +982,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1011,13 +999,13 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1028,13 +1016,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -1045,13 +1033,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1062,13 +1050,13 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -1079,13 +1067,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -1096,13 +1084,13 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -1113,13 +1101,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -1130,13 +1118,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -1147,13 +1135,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -1164,13 +1152,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -1181,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1186,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -1215,13 +1203,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
@@ -1232,13 +1220,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
@@ -1249,13 +1237,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
@@ -1266,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -1283,13 +1271,13 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
@@ -1300,13 +1288,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
@@ -1317,13 +1305,13 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
@@ -1334,13 +1322,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
@@ -1351,13 +1339,13 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
@@ -1368,47 +1356,13 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_descriptives/combined/pointpanel_variables.xlsx
+++ b/results/initial_descriptives/combined/pointpanel_variables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
   <si>
     <t>position</t>
   </si>
@@ -39,6 +39,9 @@
     <t>fips</t>
   </si>
   <si>
+    <t>fipsstr</t>
+  </si>
+  <si>
     <t>county_acresk</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>str5</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
@@ -249,6 +255,9 @@
     <t>state+county fips code</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>(sum) acresk</t>
   </si>
   <si>
@@ -315,7 +324,7 @@
     <t>2010USD annualized net return/acre of bare forestland [L&amp;M]</t>
   </si>
   <si>
-    <t>2010USD annualized net return/acre derived from price of recently dev. land[L&amp;M]</t>
+    <t>2010USD annualized net return/acre [RFF]</t>
   </si>
   <si>
     <t>= pasture_nr</t>
@@ -328,9 +337,6 @@
   </si>
   <si>
     <t>2010USD CRP Contract-based FY rent payments (not actuals) (USDA)</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -387,13 +393,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -404,13 +410,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -421,13 +427,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -455,13 +461,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +478,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +495,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -506,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -523,13 +529,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -540,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -557,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -574,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -591,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -608,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -625,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -642,13 +648,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +665,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -676,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +699,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -710,13 +716,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -727,13 +733,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -744,13 +750,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +767,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -778,13 +784,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -795,13 +801,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -812,13 +818,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -829,13 +835,13 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -846,13 +852,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -863,13 +869,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -880,13 +886,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -897,13 +903,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -914,13 +920,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -948,13 +954,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -965,13 +971,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -982,13 +988,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1005,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
@@ -1016,13 +1022,13 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -1033,13 +1039,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -1050,13 +1056,13 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1067,13 +1073,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -1084,13 +1090,13 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1101,13 +1107,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1118,13 +1124,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -1135,13 +1141,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -1152,13 +1158,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -1169,13 +1175,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -1186,13 +1192,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -1203,13 +1209,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -1220,13 +1226,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -1237,13 +1243,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1254,13 +1260,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -1271,13 +1277,13 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1288,13 +1294,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -1305,13 +1311,13 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -1322,13 +1328,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -1339,13 +1345,13 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -1356,13 +1362,30 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
